--- a/Downscaleddata/pdfs/surface o2_thresholds.xlsx
+++ b/Downscaleddata/pdfs/surface o2_thresholds.xlsx
@@ -496,28 +496,28 @@
         <v>6.150419187545777</v>
       </c>
       <c r="D2" t="n">
-        <v>6.845614824065301</v>
+        <v>6.896901285100976</v>
       </c>
       <c r="E2" t="n">
-        <v>6.135698408385049</v>
+        <v>6.139009826363375</v>
       </c>
       <c r="F2" t="n">
-        <v>6.647432210611093</v>
+        <v>6.576411474225445</v>
       </c>
       <c r="G2" t="n">
-        <v>5.925834358116813</v>
+        <v>5.772900851841581</v>
       </c>
       <c r="H2" t="n">
-        <v>6.830876379737588</v>
+        <v>6.874272700139254</v>
       </c>
       <c r="I2" t="n">
-        <v>6.123625469269186</v>
+        <v>6.124851285713226</v>
       </c>
       <c r="J2" t="n">
-        <v>6.576640445096416</v>
+        <v>6.500905559532678</v>
       </c>
       <c r="K2" t="n">
-        <v>5.833235863933932</v>
+        <v>5.639929978087127</v>
       </c>
     </row>
   </sheetData>
